--- a/state/washington/employment_estimate.xlsx
+++ b/state/washington/employment_estimate.xlsx
@@ -1670,7 +1670,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2411,7 +2411,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3005,7 +3005,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4101,7 +4101,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4636,7 +4636,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -7681,7 +7681,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -9541,7 +9541,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>State of Washington</t>
         </is>
       </c>
       <c r="B22" t="n">
